--- a/docs/StructureDefinition-VAUnfinishedOutpatientMedicationOrder.xlsx
+++ b/docs/StructureDefinition-VAUnfinishedOutpatientMedicationOrder.xlsx
@@ -346,6 +346,263 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>medicationrequest-pharmacyOrderStatus</t>
+  </si>
+  <si>
+    <t>ORDER TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacyOrderStatus}
+</t>
+  </si>
+  <si>
+    <t>This field describes the status of the Pending order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @ORDER TYPE 52.41-2b</t>
+  </si>
+  <si>
+    <t>richAnnotation-comment-text</t>
+  </si>
+  <si>
+    <t>EXPANDED PATIENT INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
+</t>
+  </si>
+  <si>
+    <t>PROVIDER COMMENTS</t>
+  </si>
+  <si>
+    <t>This field will store the expanded patient instructions that are stored in the patient instruction field (#114) or the expanded patient instructions from CPRS.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @EXPANDED PATIENT INSTRUCTIONS 52.41105-.01</t>
+  </si>
+  <si>
+    <t>medicationrequest-flaggedForClarification</t>
+  </si>
+  <si>
+    <t>FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-flaggedForClarification}
+</t>
+  </si>
+  <si>
+    <t>This field shall designate whether or not a prescription has been flagged for follow up with a provider.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @FLAG 52.41-102</t>
+  </si>
+  <si>
+    <t>medicationrequest-forShipboardHazard</t>
+  </si>
+  <si>
+    <t>PROJ 112/SHAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forShipboardHazard}
+</t>
+  </si>
+  <si>
+    <t>During CPRS order entry, if a veteran has been identified as having been treated for a condition related to PROJ 112/SHAD, the clinician will be  asked to identify whether or not the outpatient medication order being  prescribed is being used to treat a condition related to PROJ 112/SHAD.  This field will store the response that was entered for this question.   This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @PROJ 112/SHAD 52.41-110.2</t>
+  </si>
+  <si>
+    <t>medicationrequest-forCombatService</t>
+  </si>
+  <si>
+    <t>COMBAT VETERAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forCombatService}
+</t>
+  </si>
+  <si>
+    <t>During CPRS order entry, if a veteran has been identified as having been  treated for a condition related to Combat Services, the clinician will be  asked to identify whether or not the outpatient medication order being prescribed is being used to treat a condition related to Combat Services. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @COMBAT VETERAN 52.41-110.1</t>
+  </si>
+  <si>
+    <t>medicationrequest-forHeadOrNeckCancer</t>
+  </si>
+  <si>
+    <t>HEAD AND/OR NECK CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forHeadOrNeckCancer}
+</t>
+  </si>
+  <si>
+    <t>During CPRS order entry, if a veteran has been identified as having been treated for Head and/or Neck Cancer due to nose or throat radium treatments while in the military, the clinician will be asked to identify whether or not the outpatient medication order prescribed is being used to treat this condition. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @HEAD AND/OR NECK CANCER 52.41-110</t>
+  </si>
+  <si>
+    <t>medicationrequest-forSouthwestAsiaConditions</t>
+  </si>
+  <si>
+    <t>SOUTHWEST ASIA CONDITIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forSouthwestAsiaConditions}
+</t>
+  </si>
+  <si>
+    <t>During CPRS order entry, if a veteran has been identified as having been exposed to Southwest Asia Conditions during the Persian Gulf War, the clinician will be asked to identify whether or not the outpatient medication order prescribed is being used to treat a condition due to this exposure. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @SOUTHWEST ASIA CONDITIONS 52.41-109</t>
+  </si>
+  <si>
+    <t>medicationrequest-forExposureToIonizingRadiation</t>
+  </si>
+  <si>
+    <t>IONIZING RADIATION EXPOSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forExposureToIonizingRadiation}
+</t>
+  </si>
+  <si>
+    <t>During CPRS order entry, if a veteran has been identified as having been exposed to ionizing radiation during military service, the clinician will be asked to identify whether or not the outpatient medication order prescribed is being used to treat a condition due to this exposure. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @IONIZING RADIATION EXPOSURE 52.41-108</t>
+  </si>
+  <si>
+    <t>medicationrequest-forAgentOrangeExposure</t>
+  </si>
+  <si>
+    <t>AGENT ORANGE EXPOSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forAgentOrangeExposure}
+</t>
+  </si>
+  <si>
+    <t>During CPRS order entry, if a veteran has been identified as having been exposed to Agent Orange during Vietnam service, the clinician will be asked to identify whether or not the outpatient medication order prescribed is being used to treat a condition due to this exposure. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @AGENT ORANGE EXPOSURE 52.41-107</t>
+  </si>
+  <si>
+    <t>medicationrequest-forMilitarySexualTrauma</t>
+  </si>
+  <si>
+    <t>MILITARY SEXUAL TRAUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forMilitarySexualTrauma}
+</t>
+  </si>
+  <si>
+    <t>During CPRS order entry, if a veteran has been identified as having been treated for Military Sexual Trauma, the clinician will be asked to identify whether or not the outpatient medication order being prescribed is being used to treat a condition related to Military Sexual Trauma. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @MILITARY SEXUAL TRAUMA 52.41-106</t>
+  </si>
+  <si>
+    <t>medicationrequest-forServiceConnectedCondition</t>
+  </si>
+  <si>
+    <t>SERVICE CONNECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forServiceConnectedCondition}
+</t>
+  </si>
+  <si>
+    <t>This indicates whether the order is for a service connected or non-service connected condition.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @SERVICE CONNECTED 52.41-17</t>
+  </si>
+  <si>
+    <t>medicationrequest-permittedFillDate</t>
+  </si>
+  <si>
+    <t>POSSIBLE FILL DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-permittedFillDate}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This field will be used to display the effective date of a discharge med or pass med.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @POSSIBLE FILL DATE 52.41-26</t>
+  </si>
+  <si>
+    <t>pharmacy-dispenseChannel</t>
+  </si>
+  <si>
+    <t>PICKUP ROUTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dispenseChannel}
+</t>
+  </si>
+  <si>
+    <t>ROUTING</t>
+  </si>
+  <si>
+    <t>This is how the medication is to be given to the patient.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @PICKUP ROUTING 52.41-19</t>
+  </si>
+  <si>
+    <t>pharmacy-dispenseProduct</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dispenseProduct}
+</t>
+  </si>
+  <si>
+    <t>This is the pointer to the Drug file entry that is associated with the Pharmacy Orderable Item. Not all orders will have a Drug when received from CPRS, but upon finishing the order, a Drug must be entered.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @DRUG 52.41-11</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderPlacementChannel</t>
+  </si>
+  <si>
+    <t>NATURE OF ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
+</t>
+  </si>
+  <si>
+    <t>This is the Nature of the order, as it is entered through CPRS.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @NATURE OF ORDER  52.41-7</t>
+  </si>
+  <si>
     <t>medicationrequest-orderIssueDate</t>
   </si>
   <si>
@@ -359,264 +616,7 @@
     <t>This is the date the order goes into effect.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PENDING OUTPATIENT ORDERS @EFFECTIVE DATE 52.41-6</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderPlacementChannel</t>
-  </si>
-  <si>
-    <t>NATURE OF ORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
-</t>
-  </si>
-  <si>
-    <t>This is the Nature of the order, as it is entered through CPRS.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @NATURE OF ORDER  52.41-7</t>
-  </si>
-  <si>
-    <t>pharmacy-dispenseProduct</t>
-  </si>
-  <si>
-    <t>DRUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dispenseProduct}
-</t>
-  </si>
-  <si>
-    <t>This is the pointer to the Drug file entry that is associated with the Pharmacy Orderable Item. Not all orders will have a Drug when received from CPRS, but upon finishing the order, a Drug must be entered.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @DRUG 52.41-11</t>
-  </si>
-  <si>
-    <t>pharmacy-dispenseChannel</t>
-  </si>
-  <si>
-    <t>PICKUP ROUTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dispenseChannel}
-</t>
-  </si>
-  <si>
-    <t>ROUTING</t>
-  </si>
-  <si>
-    <t>This is how the medication is to be given to the patient.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @PICKUP ROUTING 52.41-19</t>
-  </si>
-  <si>
-    <t>medicationrequest-permittedFillDate</t>
-  </si>
-  <si>
-    <t>POSSIBLE FILL DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-permittedFillDate}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>This field will be used to display the effective date of a discharge med or pass med.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @POSSIBLE FILL DATE 52.41-26</t>
-  </si>
-  <si>
-    <t>medicationrequest-forServiceConnectedCondition</t>
-  </si>
-  <si>
-    <t>SERVICE CONNECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forServiceConnectedCondition}
-</t>
-  </si>
-  <si>
-    <t>This indicates whether the order is for a service connected or non-service connected condition.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @SERVICE CONNECTED 52.41-17</t>
-  </si>
-  <si>
-    <t>medicationrequest-forMilitarySexualTrauma</t>
-  </si>
-  <si>
-    <t>MILITARY SEXUAL TRAUMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forMilitarySexualTrauma}
-</t>
-  </si>
-  <si>
-    <t>During CPRS order entry, if a veteran has been identified as having been treated for Military Sexual Trauma, the clinician will be asked to identify whether or not the outpatient medication order being prescribed is being used to treat a condition related to Military Sexual Trauma. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @MILITARY SEXUAL TRAUMA 52.41-106</t>
-  </si>
-  <si>
-    <t>medicationrequest-forAgentOrangeExposure</t>
-  </si>
-  <si>
-    <t>AGENT ORANGE EXPOSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forAgentOrangeExposure}
-</t>
-  </si>
-  <si>
-    <t>During CPRS order entry, if a veteran has been identified as having been exposed to Agent Orange during Vietnam service, the clinician will be asked to identify whether or not the outpatient medication order prescribed is being used to treat a condition due to this exposure. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @AGENT ORANGE EXPOSURE 52.41-107</t>
-  </si>
-  <si>
-    <t>medicationrequest-forExposureToIonizingRadiation</t>
-  </si>
-  <si>
-    <t>IONIZING RADIATION EXPOSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forExposureToIonizingRadiation}
-</t>
-  </si>
-  <si>
-    <t>During CPRS order entry, if a veteran has been identified as having been exposed to ionizing radiation during military service, the clinician will be asked to identify whether or not the outpatient medication order prescribed is being used to treat a condition due to this exposure. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @IONIZING RADIATION EXPOSURE 52.41-108</t>
-  </si>
-  <si>
-    <t>medicationrequest-forSouthwestAsiaConditions</t>
-  </si>
-  <si>
-    <t>SOUTHWEST ASIA CONDITIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forSouthwestAsiaConditions}
-</t>
-  </si>
-  <si>
-    <t>During CPRS order entry, if a veteran has been identified as having been exposed to Southwest Asia Conditions during the Persian Gulf War, the clinician will be asked to identify whether or not the outpatient medication order prescribed is being used to treat a condition due to this exposure. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @SOUTHWEST ASIA CONDITIONS 52.41-109</t>
-  </si>
-  <si>
-    <t>medicationrequest-forHeadOrNeckCancer</t>
-  </si>
-  <si>
-    <t>HEAD AND/OR NECK CANCER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forHeadOrNeckCancer}
-</t>
-  </si>
-  <si>
-    <t>During CPRS order entry, if a veteran has been identified as having been treated for Head and/or Neck Cancer due to nose or throat radium treatments while in the military, the clinician will be asked to identify whether or not the outpatient medication order prescribed is being used to treat this condition. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @HEAD AND/OR NECK CANCER 52.41-110</t>
-  </si>
-  <si>
-    <t>medicationrequest-forCombatService</t>
-  </si>
-  <si>
-    <t>COMBAT VETERAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forCombatService}
-</t>
-  </si>
-  <si>
-    <t>During CPRS order entry, if a veteran has been identified as having been  treated for a condition related to Combat Services, the clinician will be  asked to identify whether or not the outpatient medication order being prescribed is being used to treat a condition related to Combat Services. This field will store the response that was entered for this question. This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @COMBAT VETERAN 52.41-110.1</t>
-  </si>
-  <si>
-    <t>medicationrequest-forShipboardHazard</t>
-  </si>
-  <si>
-    <t>PROJ 112/SHAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forShipboardHazard}
-</t>
-  </si>
-  <si>
-    <t>During CPRS order entry, if a veteran has been identified as having been treated for a condition related to PROJ 112/SHAD, the clinician will be  asked to identify whether or not the outpatient medication order being  prescribed is being used to treat a condition related to PROJ 112/SHAD.  This field will store the response that was entered for this question.   This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @PROJ 112/SHAD 52.41-110.2</t>
-  </si>
-  <si>
-    <t>medicationrequest-flaggedForClarification</t>
-  </si>
-  <si>
-    <t>FLAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-flaggedForClarification}
-</t>
-  </si>
-  <si>
-    <t>This field shall designate whether or not a prescription has been flagged for follow up with a provider.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @FLAG 52.41-102</t>
-  </si>
-  <si>
-    <t>richAnnotation/comment/text</t>
-  </si>
-  <si>
-    <t>EXPANDED PATIENT INSTRUCTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
-</t>
-  </si>
-  <si>
-    <t>PROVIDER COMMENTS</t>
-  </si>
-  <si>
-    <t>This field will store the expanded patient instructions that are stored in the patient instruction field (#114) or the expanded patient instructions from CPRS.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @EXPANDED PATIENT INSTRUCTIONS 52.41105-.01</t>
-  </si>
-  <si>
-    <t>medicationrequest-pharmacyOrderStatus</t>
-  </si>
-  <si>
-    <t>ORDER TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacyOrderStatus}
-</t>
-  </si>
-  <si>
-    <t>This field describes the status of the Pending order.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @ORDER TYPE 52.41-2b</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -1424,6 +1424,25 @@
     <t>MedicationRequest.dosageInstruction.extension</t>
   </si>
   <si>
+    <t>pharmacy-sigVerb</t>
+  </si>
+  <si>
+    <t>VERB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-sigVerb}
+</t>
+  </si>
+  <si>
+    <t>SIG INFO</t>
+  </si>
+  <si>
+    <t>This verb will be used to describe how the medication is taken/used.</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @VERB 52.413-13</t>
+  </si>
+  <si>
     <t>conjunction</t>
   </si>
   <si>
@@ -1434,29 +1453,10 @@
 </t>
   </si>
   <si>
-    <t>SIG INFO</t>
-  </si>
-  <si>
     <t>This is a code passed to Pharmacy from CPRS to help build a Possible Sig for a complex medication dose. This code usually expands to an "and",  a "then", or an "except".</t>
   </si>
   <si>
     <t>PENDING OUTPATIENT ORDERS @CONJUNCTION 52.413-6</t>
-  </si>
-  <si>
-    <t>pharmacy-sigVerb</t>
-  </si>
-  <si>
-    <t>VERB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-sigVerb}
-</t>
-  </si>
-  <si>
-    <t>This verb will be used to describe how the medication is taken/used.</t>
-  </si>
-  <si>
-    <t>PENDING OUTPATIENT ORDERS @VERB 52.413-13</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.sequence</t>
@@ -3911,7 +3911,7 @@
         <v>107</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>108</v>
@@ -4030,10 +4030,10 @@
         <v>114</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -4099,7 +4099,7 @@
         <v>110</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
@@ -4122,13 +4122,13 @@
         <v>98</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>43</v>
@@ -4146,13 +4146,13 @@
         <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4218,7 +4218,7 @@
         <v>110</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
@@ -4227,7 +4227,7 @@
         <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -4241,13 +4241,13 @@
         <v>98</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>43</v>
@@ -4265,10 +4265,10 @@
         <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>126</v>
@@ -4346,7 +4346,7 @@
         <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -4387,10 +4387,10 @@
         <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4456,7 +4456,7 @@
         <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
@@ -4465,7 +4465,7 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -4479,13 +4479,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>43</v>
@@ -4503,13 +4503,13 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4575,7 +4575,7 @@
         <v>110</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
@@ -4598,13 +4598,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>43</v>
@@ -4622,13 +4622,13 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4694,7 +4694,7 @@
         <v>110</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
@@ -4717,13 +4717,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>43</v>
@@ -4741,13 +4741,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4813,7 +4813,7 @@
         <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
@@ -4836,13 +4836,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>43</v>
@@ -4860,13 +4860,13 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4932,7 +4932,7 @@
         <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
@@ -4955,13 +4955,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>43</v>
@@ -4979,13 +4979,13 @@
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5051,7 +5051,7 @@
         <v>110</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
@@ -5074,13 +5074,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>43</v>
@@ -5098,13 +5098,13 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -5170,7 +5170,7 @@
         <v>110</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
@@ -5193,13 +5193,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>43</v>
@@ -5217,10 +5217,10 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>167</v>
@@ -5298,7 +5298,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -5339,10 +5339,10 @@
         <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5408,7 +5408,7 @@
         <v>110</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
@@ -5417,7 +5417,7 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -5431,13 +5431,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>43</v>
@@ -5455,13 +5455,13 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5527,7 +5527,7 @@
         <v>110</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
@@ -5536,7 +5536,7 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -5550,13 +5550,13 @@
         <v>98</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>43</v>
@@ -5574,10 +5574,10 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>183</v>
@@ -5696,7 +5696,7 @@
         <v>187</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>188</v>
@@ -7309,7 +7309,7 @@
         <v>45</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s" s="2">
         <v>43</v>
@@ -7330,10 +7330,10 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>289</v>

--- a/docs/StructureDefinition-VAUnfinishedOutpatientMedicationOrder.xlsx
+++ b/docs/StructureDefinition-VAUnfinishedOutpatientMedicationOrder.xlsx
@@ -415,6 +415,9 @@
 </t>
   </si>
   <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
     <t>During CPRS order entry, if a veteran has been identified as having been treated for a condition related to PROJ 112/SHAD, the clinician will be  asked to identify whether or not the outpatient medication order being  prescribed is being used to treat a condition related to PROJ 112/SHAD.  This field will store the response that was entered for this question.   This value will be used as the default value for the same prompt presented to the pharmacist when finishing the medication order that was entered through CPRS.</t>
   </si>
   <si>
@@ -541,9 +544,6 @@
   <si>
     <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-permittedFillDate}
 </t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
   </si>
   <si>
     <t>This field will be used to display the effective date of a discharge med or pass med.</t>
@@ -4436,10 +4436,10 @@
         <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4505,7 +4505,7 @@
         <v>110</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
@@ -4514,7 +4514,7 @@
         <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -4528,13 +4528,13 @@
         <v>98</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>43</v>
@@ -4552,13 +4552,13 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4624,7 +4624,7 @@
         <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -4647,13 +4647,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>43</v>
@@ -4671,13 +4671,13 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4743,7 +4743,7 @@
         <v>110</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
@@ -4752,7 +4752,7 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -4766,13 +4766,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>43</v>
@@ -4790,13 +4790,13 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4862,7 +4862,7 @@
         <v>110</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
@@ -4871,7 +4871,7 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>45</v>
@@ -4885,13 +4885,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>43</v>
@@ -4909,13 +4909,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4981,7 +4981,7 @@
         <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
@@ -4990,7 +4990,7 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -5004,13 +5004,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>43</v>
@@ -5028,13 +5028,13 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -5100,7 +5100,7 @@
         <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
@@ -5109,7 +5109,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -5123,13 +5123,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>43</v>
@@ -5147,13 +5147,13 @@
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5219,7 +5219,7 @@
         <v>110</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
@@ -5228,7 +5228,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -5242,13 +5242,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>43</v>
@@ -5266,13 +5266,13 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -5338,7 +5338,7 @@
         <v>110</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
@@ -5347,7 +5347,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -5361,13 +5361,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>43</v>
@@ -5385,10 +5385,10 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>167</v>
@@ -5864,7 +5864,7 @@
         <v>187</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>188</v>
@@ -5942,7 +5942,7 @@
         <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -11552,7 +11552,7 @@
         <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -11671,7 +11671,7 @@
         <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
